--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>901422.9235663892</v>
+        <v>827581.7306307473</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298028</v>
+        <v>405687.0519298026</v>
       </c>
     </row>
     <row r="8">
@@ -661,23 +661,23 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="H2" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>126.358590200387</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>152.8155841186202</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,64 +1135,64 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.13484214871499</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7.75244978286076</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>140.2657059326912</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>146.2719311328121</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1460,10 +1460,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>1.555310432045805</v>
       </c>
       <c r="G12" t="n">
-        <v>23.01928168852975</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207139</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S12" t="n">
         <v>161.6448423772186</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>118.9937234637968</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022417</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>193.8209438199395</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>225.6755266333755</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>308.4769474948198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393331</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,10 +1697,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>1.555310432045805</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.555310432046248</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207139</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S15" t="n">
         <v>161.6448423772186</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>156.1759395302581</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.07953203846285</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385098</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S16" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>147.075402724031</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393331</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>299.6505470945136</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1928,16 +1928,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>1.555310432045798</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>141.9180006590459</v>
       </c>
       <c r="U18" t="n">
         <v>225.9058271976456</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.496643443665415</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>193.8209438199398</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>263.3878013207603</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>61.24808656576333</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
         <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
-        <v>49.79646337894128</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
         <v>225.9058271976456</v>
@@ -2222,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>21.75631204427252</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>84.39134579802132</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>228.2062988327026</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>137.0203456208566</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>85.64047902724785</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>86.88462298447445</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>164.6242057717094</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>98.63122914173718</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>78.32618729827836</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>188.8884492248233</v>
+        <v>10.65893690886289</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2930,7 +2930,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V30" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>151.2756923576013</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>274.9468465755252</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>104.3225890499765</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U33" t="n">
         <v>225.8879277888686</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>4.440065804380572</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>228.2608250101694</v>
+        <v>118.32704663353</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>229.5889480231529</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>263.8525156253496</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>331.7493528766291</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>274.4521713670106</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>4.553858340637828</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>22.11041309544134</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.91401559658143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.1655810026939</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>132.3879643982074</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X46" t="n">
-        <v>94.63926978363978</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C2" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E2" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F2" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4366,16 +4366,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X2" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="W2" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X2" t="n">
-        <v>477.1596022224361</v>
-      </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,10 +4506,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>433.7223438482202</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C6" t="n">
-        <v>259.2693145670932</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>809.6979796332421</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>601.9376808682882</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4743,19 +4743,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>901.2946886937524</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C9" t="n">
-        <v>726.8416594126254</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>577.9072497513741</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4895,7 +4895,7 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>782.8090536048801</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="10">
@@ -4950,19 +4950,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>811.4394801123591</v>
+        <v>1204.106214318017</v>
       </c>
       <c r="C11" t="n">
-        <v>811.4394801123591</v>
+        <v>1204.106214318017</v>
       </c>
       <c r="D11" t="n">
-        <v>453.1737815056086</v>
+        <v>1204.106214318017</v>
       </c>
       <c r="E11" t="n">
-        <v>453.1737815056086</v>
+        <v>1204.106214318017</v>
       </c>
       <c r="F11" t="n">
-        <v>42.18787671600103</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="G11" t="n">
-        <v>42.18787671600103</v>
+        <v>374.642865954865</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856228</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953287</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803413</v>
+        <v>683.3219880803409</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170708</v>
+        <v>1777.842707170707</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755286</v>
       </c>
       <c r="Q11" t="n">
         <v>2109.393835800051</v>
@@ -5068,25 +5068,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>1961.644410413372</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T11" t="n">
-        <v>1961.644410413372</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U11" t="n">
-        <v>1961.644410413372</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V11" t="n">
-        <v>1961.644410413372</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W11" t="n">
-        <v>1961.644410413372</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="X11" t="n">
-        <v>1588.178652152293</v>
+        <v>1735.928077538971</v>
       </c>
       <c r="Y11" t="n">
-        <v>1198.039320176481</v>
+        <v>1345.788745563159</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>545.6647186610821</v>
+        <v>377.4493816410136</v>
       </c>
       <c r="C12" t="n">
-        <v>371.2116893799551</v>
+        <v>202.9963523598866</v>
       </c>
       <c r="D12" t="n">
-        <v>371.2116893799551</v>
+        <v>202.9963523598866</v>
       </c>
       <c r="E12" t="n">
-        <v>211.9742343744996</v>
+        <v>43.75889735443113</v>
       </c>
       <c r="F12" t="n">
-        <v>65.43967640138462</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147163</v>
+        <v>91.99734226147164</v>
       </c>
       <c r="K12" t="n">
         <v>303.7504955284376</v>
@@ -5132,22 +5132,22 @@
         <v>1105.782828129934</v>
       </c>
       <c r="N12" t="n">
-        <v>1589.455839519192</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.506473496562</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875405</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q12" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525232</v>
+        <v>2042.117567525231</v>
       </c>
       <c r="S12" t="n">
-        <v>1878.839948962385</v>
+        <v>1878.839948962384</v>
       </c>
       <c r="T12" t="n">
         <v>1678.853686831559</v>
@@ -5159,13 +5159,13 @@
         <v>1215.51387435977</v>
       </c>
       <c r="W12" t="n">
-        <v>961.2765176315688</v>
+        <v>961.2765176315684</v>
       </c>
       <c r="X12" t="n">
-        <v>753.425017426036</v>
+        <v>753.4250174260355</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.6647186610821</v>
+        <v>545.6647186610817</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="G13" t="n">
-        <v>407.1880976177523</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="H13" t="n">
-        <v>247.391266796609</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="I13" t="n">
-        <v>104.1336238879447</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="K13" t="n">
         <v>72.25456008701799</v>
@@ -5232,19 +5232,19 @@
         <v>527.3837778842137</v>
       </c>
       <c r="U13" t="n">
-        <v>527.3837778842137</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V13" t="n">
-        <v>527.3837778842137</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600102</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>353.7807529733948</v>
+        <v>1155.204344861407</v>
       </c>
       <c r="C14" t="n">
-        <v>353.7807529733948</v>
+        <v>786.2418279209958</v>
       </c>
       <c r="D14" t="n">
-        <v>353.7807529733948</v>
+        <v>427.9761293142453</v>
       </c>
       <c r="E14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J14" t="n">
         <v>115.2290882856227</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803409</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
@@ -5293,37 +5293,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q14" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R14" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T14" t="n">
-        <v>1801.217385823971</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U14" t="n">
-        <v>1801.217385823971</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V14" t="n">
-        <v>1470.1544984804</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W14" t="n">
-        <v>1117.385843210286</v>
+        <v>1756.625180529937</v>
       </c>
       <c r="X14" t="n">
-        <v>743.9200849492065</v>
+        <v>1383.159422268857</v>
       </c>
       <c r="Y14" t="n">
-        <v>353.7807529733948</v>
+        <v>1383.159422268857</v>
       </c>
     </row>
     <row r="15">
@@ -5333,58 +5333,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>377.4493816410136</v>
+        <v>377.4493816410141</v>
       </c>
       <c r="C15" t="n">
-        <v>202.9963523598866</v>
+        <v>202.9963523598871</v>
       </c>
       <c r="D15" t="n">
-        <v>202.9963523598866</v>
+        <v>202.9963523598871</v>
       </c>
       <c r="E15" t="n">
-        <v>43.75889735443113</v>
+        <v>43.75889735443158</v>
       </c>
       <c r="F15" t="n">
-        <v>42.18787671600102</v>
+        <v>43.75889735443158</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K15" t="n">
-        <v>253.941029982967</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="L15" t="n">
-        <v>600.0736727994083</v>
+        <v>388.3205195324424</v>
       </c>
       <c r="M15" t="n">
-        <v>827.1688172098172</v>
+        <v>844.2202093174978</v>
       </c>
       <c r="N15" t="n">
-        <v>1310.841828599075</v>
+        <v>1327.893220706756</v>
       </c>
       <c r="O15" t="n">
-        <v>1686.892462576445</v>
+        <v>1703.943854684126</v>
       </c>
       <c r="P15" t="n">
-        <v>1971.703181875404</v>
+        <v>1988.754573983085</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525231</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962384</v>
+        <v>1878.839948962385</v>
       </c>
       <c r="T15" t="n">
         <v>1678.853686831559</v>
@@ -5396,13 +5396,13 @@
         <v>1215.51387435977</v>
       </c>
       <c r="W15" t="n">
-        <v>961.2765176315684</v>
+        <v>961.2765176315688</v>
       </c>
       <c r="X15" t="n">
-        <v>753.4250174260355</v>
+        <v>753.425017426036</v>
       </c>
       <c r="Y15" t="n">
-        <v>545.6647186610817</v>
+        <v>545.6647186610821</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.8641717043473</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="C16" t="n">
-        <v>101.8641717043473</v>
+        <v>199.941350988989</v>
       </c>
       <c r="D16" t="n">
-        <v>101.8641717043473</v>
+        <v>199.941350988989</v>
       </c>
       <c r="E16" t="n">
-        <v>101.8641717043473</v>
+        <v>199.941350988989</v>
       </c>
       <c r="F16" t="n">
-        <v>101.8641717043473</v>
+        <v>199.941350988989</v>
       </c>
       <c r="G16" t="n">
-        <v>101.8641717043473</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H16" t="n">
-        <v>101.8641717043473</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I16" t="n">
-        <v>101.8641717043473</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K16" t="n">
         <v>72.25456008701799</v>
@@ -5457,31 +5457,31 @@
         <v>527.3837778842137</v>
       </c>
       <c r="Q16" t="n">
-        <v>478.6740683752734</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R16" t="n">
-        <v>320.1678244079555</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="S16" t="n">
-        <v>101.8641717043473</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="T16" t="n">
-        <v>101.8641717043473</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="U16" t="n">
-        <v>101.8641717043473</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="V16" t="n">
-        <v>101.8641717043473</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="W16" t="n">
-        <v>101.8641717043473</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="X16" t="n">
-        <v>101.8641717043473</v>
+        <v>368.8775339168959</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.8641717043473</v>
+        <v>368.8775339168959</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>942.6839997919894</v>
+        <v>1197.227732710603</v>
       </c>
       <c r="C17" t="n">
-        <v>573.7214828515778</v>
+        <v>1197.227732710603</v>
       </c>
       <c r="D17" t="n">
-        <v>215.4557842448272</v>
+        <v>838.9620341038528</v>
       </c>
       <c r="E17" t="n">
-        <v>215.4557842448272</v>
+        <v>453.1737815056086</v>
       </c>
       <c r="F17" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G17" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H17" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K17" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803408</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
@@ -5530,37 +5530,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q17" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V17" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W17" t="n">
-        <v>1719.423171831923</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="X17" t="n">
-        <v>1719.423171831923</v>
+        <v>1735.928077538972</v>
       </c>
       <c r="Y17" t="n">
-        <v>1329.283839856111</v>
+        <v>1345.78874556316</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.4493816410136</v>
+        <v>501.3603962294413</v>
       </c>
       <c r="C18" t="n">
-        <v>202.9963523598866</v>
+        <v>326.9073669483143</v>
       </c>
       <c r="D18" t="n">
-        <v>201.4253317214565</v>
+        <v>326.9073669483143</v>
       </c>
       <c r="E18" t="n">
-        <v>42.18787671600102</v>
+        <v>326.9073669483143</v>
       </c>
       <c r="F18" t="n">
-        <v>42.18787671600102</v>
+        <v>180.3728089751993</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K18" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="L18" t="n">
-        <v>371.2691274247618</v>
+        <v>388.3205195324424</v>
       </c>
       <c r="M18" t="n">
-        <v>827.1688172098172</v>
+        <v>827.1688172098175</v>
       </c>
       <c r="N18" t="n">
         <v>1310.841828599075</v>
@@ -5618,28 +5618,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S18" t="n">
-        <v>1878.839948962384</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T18" t="n">
-        <v>1678.853686831559</v>
+        <v>1802.764701419986</v>
       </c>
       <c r="U18" t="n">
-        <v>1450.665982591513</v>
+        <v>1574.57699717994</v>
       </c>
       <c r="V18" t="n">
-        <v>1215.51387435977</v>
+        <v>1339.424888948198</v>
       </c>
       <c r="W18" t="n">
-        <v>961.2765176315684</v>
+        <v>1085.187532219996</v>
       </c>
       <c r="X18" t="n">
-        <v>753.4250174260355</v>
+        <v>877.3360320144632</v>
       </c>
       <c r="Y18" t="n">
-        <v>545.6647186610817</v>
+        <v>669.5757332495093</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.70973878030952</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C19" t="n">
-        <v>44.70973878030952</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D19" t="n">
-        <v>44.70973878030952</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E19" t="n">
-        <v>44.70973878030952</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L19" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U19" t="n">
-        <v>527.3837778842137</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V19" t="n">
-        <v>272.6992896783269</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W19" t="n">
-        <v>272.6992896783269</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X19" t="n">
-        <v>44.70973878030952</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.70973878030952</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1722.793995735929</v>
+        <v>1470.154498480401</v>
       </c>
       <c r="C20" t="n">
-        <v>1353.831478795518</v>
+        <v>1470.154498480401</v>
       </c>
       <c r="D20" t="n">
-        <v>995.5657801887671</v>
+        <v>1470.154498480401</v>
       </c>
       <c r="E20" t="n">
-        <v>609.7775275905228</v>
+        <v>1204.106214318017</v>
       </c>
       <c r="F20" t="n">
-        <v>609.7775275905228</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="G20" t="n">
-        <v>547.9107734836912</v>
+        <v>374.642865954865</v>
       </c>
       <c r="H20" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K20" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L20" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
@@ -5767,37 +5767,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q20" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="T20" t="n">
-        <v>2109.393835800051</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.393835800051</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="V20" t="n">
-        <v>2109.393835800051</v>
+        <v>1470.154498480401</v>
       </c>
       <c r="W20" t="n">
-        <v>2109.393835800051</v>
+        <v>1470.154498480401</v>
       </c>
       <c r="X20" t="n">
-        <v>2109.393835800051</v>
+        <v>1470.154498480401</v>
       </c>
       <c r="Y20" t="n">
-        <v>2109.393835800051</v>
+        <v>1470.154498480401</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.1338413064683</v>
+        <v>630.5098759087952</v>
       </c>
       <c r="C21" t="n">
-        <v>814.6808120253413</v>
+        <v>456.0568466276681</v>
       </c>
       <c r="D21" t="n">
-        <v>665.74640236409</v>
+        <v>456.0568466276681</v>
       </c>
       <c r="E21" t="n">
-        <v>506.5089473586346</v>
+        <v>296.8193916222126</v>
       </c>
       <c r="F21" t="n">
-        <v>359.9743893855196</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="G21" t="n">
-        <v>221.7894571263213</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H21" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J21" t="n">
-        <v>91.99734226147163</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K21" t="n">
-        <v>91.99734226147163</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L21" t="n">
-        <v>438.1299850779129</v>
+        <v>600.0736727994084</v>
       </c>
       <c r="M21" t="n">
-        <v>894.0296748629684</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N21" t="n">
-        <v>1377.702686252226</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O21" t="n">
-        <v>1753.753320229596</v>
+        <v>1824.583116501092</v>
       </c>
       <c r="P21" t="n">
-        <v>2038.564039528555</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q21" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S21" t="n">
-        <v>1878.839948962384</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T21" t="n">
-        <v>1828.540491003858</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U21" t="n">
-        <v>1600.352786763812</v>
+        <v>1517.942250866333</v>
       </c>
       <c r="V21" t="n">
-        <v>1365.200678532069</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="W21" t="n">
-        <v>1365.200678532069</v>
+        <v>1028.552785906388</v>
       </c>
       <c r="X21" t="n">
-        <v>1157.349178326536</v>
+        <v>820.7012857008556</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.349178326536</v>
+        <v>798.7252129288631</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L22" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842137</v>
+        <v>309.0801251806057</v>
       </c>
       <c r="T22" t="n">
-        <v>527.3837778842137</v>
+        <v>223.8363415462407</v>
       </c>
       <c r="U22" t="n">
-        <v>527.3837778842137</v>
+        <v>223.8363415462407</v>
       </c>
       <c r="V22" t="n">
-        <v>272.6992896783269</v>
+        <v>223.8363415462407</v>
       </c>
       <c r="W22" t="n">
-        <v>42.18787671600102</v>
+        <v>223.8363415462407</v>
       </c>
       <c r="X22" t="n">
-        <v>42.18787671600102</v>
+        <v>223.8363415462407</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.18787671600102</v>
+        <v>223.8363415462407</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>919.5755868835433</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C23" t="n">
-        <v>550.6130699431317</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D23" t="n">
-        <v>192.3473713363812</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036444</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,10 +6013,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
         <v>2247.308246834948</v>
@@ -6025,16 +6025,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859355</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.714918859355</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y23" t="n">
-        <v>919.5755868835433</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>290.5651556036576</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C25" t="n">
-        <v>204.0596212327002</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>141.7052272592275</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>141.7052272592275</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>290.5651556036576</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>290.5651556036576</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>290.5651556036576</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.232431292459</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C26" t="n">
-        <v>1375.269914352047</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D26" t="n">
-        <v>1017.004215745297</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E26" t="n">
-        <v>631.2159631470522</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>220.2300583574446</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G26" t="n">
-        <v>220.2300583574446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036444</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332392</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332392</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>2520.971603332392</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W26" t="n">
-        <v>2520.971603332392</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X26" t="n">
-        <v>2520.971603332392</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y26" t="n">
-        <v>2130.83227135658</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="27">
@@ -6317,13 +6317,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>133.0603427277163</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036444</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>808.6937513590203</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="C29" t="n">
-        <v>439.7312344186087</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.911859172213</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2506.352677659815</v>
+        <v>2686.382488079977</v>
       </c>
       <c r="U29" t="n">
-        <v>2252.590892297907</v>
+        <v>2686.382488079977</v>
       </c>
       <c r="V29" t="n">
-        <v>1921.528004954336</v>
+        <v>2686.382488079977</v>
       </c>
       <c r="W29" t="n">
-        <v>1568.759349684222</v>
+        <v>2686.382488079977</v>
       </c>
       <c r="X29" t="n">
-        <v>1195.293591423142</v>
+        <v>2312.916729818897</v>
       </c>
       <c r="Y29" t="n">
-        <v>1195.293591423142</v>
+        <v>1922.777397843086</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6560,19 +6560,19 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1683.321707331112</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C32" t="n">
-        <v>1314.359190390701</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D32" t="n">
-        <v>956.0934917839502</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="E32" t="n">
-        <v>570.3052391857059</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F32" t="n">
-        <v>159.3193343960983</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G32" t="n">
-        <v>159.3193343960983</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>159.3193343960983</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6736,16 +6736,16 @@
         <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.387305656314</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.387305656314</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X32" t="n">
-        <v>2069.921547395234</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y32" t="n">
-        <v>2069.921547395234</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6809,13 +6809,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>541.9956044222747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>723.6440692525144</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>723.6440692525144</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>723.6440692525144</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>723.6440692525144</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1550.991915879943</v>
+        <v>1430.355453824634</v>
       </c>
       <c r="C35" t="n">
-        <v>1182.029398939532</v>
+        <v>1430.355453824634</v>
       </c>
       <c r="D35" t="n">
-        <v>823.7637003327811</v>
+        <v>1072.089755217883</v>
       </c>
       <c r="E35" t="n">
-        <v>437.9754477345369</v>
+        <v>1072.089755217883</v>
       </c>
       <c r="F35" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W35" t="n">
-        <v>2311.057514205145</v>
+        <v>1816.955293888755</v>
       </c>
       <c r="X35" t="n">
-        <v>1937.591755944065</v>
+        <v>1816.955293888755</v>
       </c>
       <c r="Y35" t="n">
-        <v>1937.591755944065</v>
+        <v>1816.955293888755</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C38" t="n">
-        <v>1159.387068946881</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D38" t="n">
-        <v>801.1213703401302</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E38" t="n">
-        <v>534.603677789272</v>
+        <v>960.4731223681274</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
         <v>207.4089578252748</v>
@@ -7180,13 +7180,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W38" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X38" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y38" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
         <v>53.94298182036445</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1640.777806202926</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C41" t="n">
-        <v>1640.777806202926</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="D41" t="n">
-        <v>1363.553390680693</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>887.4925516215203</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>476.5066468319127</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>58.54283873009962</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>58.54283873009962</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036444</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V41" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W41" t="n">
-        <v>1640.777806202926</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X41" t="n">
-        <v>1640.777806202926</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="Y41" t="n">
-        <v>1640.777806202926</v>
+        <v>1659.880644283886</v>
       </c>
     </row>
     <row r="42">
@@ -7502,13 +7502,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>678.7208876442307</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>678.7208876442307</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036444</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>678.7208876442307</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1536.177557778964</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C44" t="n">
-        <v>1536.177557778964</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.911859172213</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1236065739691</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.387305656313</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.387305656313</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W44" t="n">
-        <v>2090.618650386199</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X44" t="n">
-        <v>1717.152892125119</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y44" t="n">
-        <v>1717.152892125119</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="45">
@@ -7730,13 +7730,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517452</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.97548067279</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>2407.97548067279</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>2118.558310635829</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632152</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O9" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>197.9140804848494</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>37.03447478123346</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,13 +9008,13 @@
         <v>75.77844388033751</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>50.57316300554226</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>234.589361351367</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>192.8536593442529</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,13 +9245,13 @@
         <v>75.77844388033751</v>
       </c>
       <c r="K18" t="n">
-        <v>50.57316300554226</v>
+        <v>50.57316300554223</v>
       </c>
       <c r="L18" t="n">
-        <v>353.6167169118627</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>448.4814353584035</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K21" t="n">
-        <v>50.57316300554226</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>301.8280854888514</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.5410678841813</v>
+        <v>70.99581912509468</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22549,22 +22549,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22606,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>21.08647536425178</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>108.2910995245859</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>52.95740108485728</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>227.3726215175137</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.3983415011523</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>192.4122789119608</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>242.4681357307894</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>171.5352284535379</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393331</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S11" t="n">
-        <v>39.73120530511264</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
         <v>218.674275242386</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23348,10 +23348,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5139019613381</v>
       </c>
       <c r="G12" t="n">
-        <v>113.7838012480766</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
         <v>107.0159873637655</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>48.54417399343922</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23472,13 +23472,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830285</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>157.058315030105</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>73.45342257744198</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S14" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5139019613381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>135.2477725045601</v>
       </c>
       <c r="H15" t="n">
         <v>107.0159873637655</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.537897457236</v>
+        <v>11.36195792697791</v>
       </c>
       <c r="H16" t="n">
         <v>158.1988625129318</v>
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>2.246757661761322</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>48.22261241385098</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T16" t="n">
         <v>226.0096940321479</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>235.6584389394496</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>414.2926691378088</v>
@@ -23752,7 +23752,7 @@
         <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S17" t="n">
         <v>186.0031364379248</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>49.59042162289944</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23816,16 +23816,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>145.889755132593</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>107.0159873637655</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>56.06839885047154</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>142.9244045792658</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.537897457236</v>
@@ -23913,7 +23913,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23946,16 +23946,16 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830262</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>118.5425687515015</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>353.0445825720455</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393331</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>148.1899361305762</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>183.9263837330318</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>141.6183482341266</v>
       </c>
       <c r="U22" t="n">
         <v>286.2943157982424</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>58.31669950388843</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>244.9100244514052</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>81.60634207137998</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>69.2862658573207</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>159.2985669926477</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>287.6067095143164</v>
       </c>
     </row>
     <row r="27">
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541058</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>56.63943449405987</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>27.55987113283453</v>
+        <v>205.7893834487949</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>16.03410990144957</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24891,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>106.9835234967366</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>47.60872719488472</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>247.6975775194474</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>178.615220731542</v>
+        <v>288.5489991081814</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>22.54869530067506</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>118.0778544469122</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>75.12669286508236</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,22 +25602,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3958356744439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>71.89960204370445</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>80.23087025367238</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>147.3774579042234</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -25833,13 +25833,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>202.9246923626429</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.6706377555134</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>203.5682606607867</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>232.8849273728002</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X46" t="n">
-        <v>131.0703856053974</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448812.4506698133</v>
+        <v>448812.4506698132</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448812.4506698133</v>
+        <v>448812.4506698132</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658021.7165593392</v>
+        <v>658021.7165593388</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>658021.716559339</v>
+        <v>658021.7165593391</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658021.7165593387</v>
+        <v>658021.7165593391</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460876</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="C2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="D2" t="n">
         <v>157852.6389047657</v>
       </c>
-      <c r="C2" t="n">
-        <v>157852.6389047657</v>
-      </c>
-      <c r="D2" t="n">
-        <v>157852.6389047658</v>
-      </c>
       <c r="E2" t="n">
-        <v>235437.2422819575</v>
+        <v>235437.2422819576</v>
       </c>
       <c r="F2" t="n">
         <v>235437.2422819576</v>
@@ -26331,7 +26331,7 @@
         <v>235437.2422819575</v>
       </c>
       <c r="H2" t="n">
-        <v>235437.2422819575</v>
+        <v>235437.2422819576</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149699</v>
@@ -26340,7 +26340,7 @@
         <v>274694.9795149697</v>
       </c>
       <c r="K2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="L2" t="n">
         <v>274694.9795149697</v>
@@ -26355,7 +26355,7 @@
         <v>274694.9795149696</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116922</v>
+        <v>134288.7015116921</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871083</v>
+        <v>71355.62051871078</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>37540.13459730638</v>
+      </c>
+      <c r="F5" t="n">
         <v>37540.13459730639</v>
       </c>
-      <c r="F5" t="n">
-        <v>37540.13459730638</v>
-      </c>
       <c r="G5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3519.670396837049</v>
+        <v>-8698.340223203328</v>
       </c>
       <c r="C6" t="n">
-        <v>84289.10192838477</v>
+        <v>72071.09130834436</v>
       </c>
       <c r="D6" t="n">
-        <v>84289.10192838483</v>
+        <v>72071.09130834433</v>
       </c>
       <c r="E6" t="n">
-        <v>-115912.9582448436</v>
+        <v>-124047.5686871371</v>
       </c>
       <c r="F6" t="n">
-        <v>171438.751768582</v>
+        <v>163304.1413262885</v>
       </c>
       <c r="G6" t="n">
-        <v>171438.751768582</v>
+        <v>163304.1413262885</v>
       </c>
       <c r="H6" t="n">
-        <v>171438.751768582</v>
+        <v>163304.1413262885</v>
       </c>
       <c r="I6" t="n">
-        <v>64087.96283490321</v>
+        <v>58019.54908908417</v>
       </c>
       <c r="J6" t="n">
-        <v>135316.721747489</v>
+        <v>129248.3080016698</v>
       </c>
       <c r="K6" t="n">
-        <v>198376.6643465953</v>
+        <v>192308.2506007759</v>
       </c>
       <c r="L6" t="n">
-        <v>198376.6643465952</v>
+        <v>192308.250600776</v>
       </c>
       <c r="M6" t="n">
-        <v>127021.0438278844</v>
+        <v>120952.6300820652</v>
       </c>
       <c r="N6" t="n">
-        <v>198376.6643465952</v>
+        <v>192308.250600776</v>
       </c>
       <c r="O6" t="n">
-        <v>198376.6643465951</v>
+        <v>192308.2506007759</v>
       </c>
       <c r="P6" t="n">
-        <v>198376.6643465952</v>
+        <v>192308.2506007761</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>251.2545088598901</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,31 +26798,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>527.3484589500127</v>
+      </c>
+      <c r="F4" t="n">
         <v>527.3484589500129</v>
       </c>
-      <c r="F4" t="n">
-        <v>527.3484589500127</v>
-      </c>
       <c r="G4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571966</v>
+        <v>126.4891553571964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723535</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H11" t="n">
         <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008884</v>
+        <v>85.72829094008885</v>
       </c>
       <c r="K11" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M11" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P11" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721637</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S11" t="n">
         <v>23.01693314832059</v>
@@ -31794,7 +31794,7 @@
         <v>4.421574321745402</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609524</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.540434226604292</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730926</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632918</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881675</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M12" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O12" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P12" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092682</v>
       </c>
       <c r="R12" t="n">
         <v>33.55432856057175</v>
@@ -31873,7 +31873,7 @@
         <v>2.178329185304141</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922975</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507749</v>
       </c>
       <c r="I13" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J13" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644861</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933434</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269907</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985383</v>
+        <v>71.02264747985384</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620546</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R13" t="n">
         <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400148</v>
+        <v>7.89598186040015</v>
       </c>
       <c r="T13" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H14" t="n">
         <v>10.34436276929185</v>
@@ -31998,19 +31998,19 @@
         <v>38.940661116868</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008884</v>
+        <v>85.72829094008885</v>
       </c>
       <c r="K14" t="n">
         <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M14" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O14" t="n">
         <v>170.1851583102183</v>
@@ -32022,7 +32022,7 @@
         <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721637</v>
+        <v>63.44870770721638</v>
       </c>
       <c r="S14" t="n">
         <v>23.01693314832059</v>
@@ -32031,7 +32031,7 @@
         <v>4.421574321745402</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609524</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.540434226604292</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730926</v>
       </c>
       <c r="I15" t="n">
         <v>18.60705560896356</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632918</v>
+        <v>51.05918278632919</v>
       </c>
       <c r="K15" t="n">
         <v>87.26827596881674</v>
@@ -32089,16 +32089,16 @@
         <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O15" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092682</v>
       </c>
       <c r="R15" t="n">
         <v>33.55432856057175</v>
@@ -32110,7 +32110,7 @@
         <v>2.178329185304141</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922975</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227526</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507749</v>
       </c>
       <c r="I16" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644861</v>
       </c>
       <c r="K16" t="n">
         <v>52.63987906933433</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269907</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985383</v>
+        <v>71.02264747985384</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620546</v>
       </c>
       <c r="O16" t="n">
         <v>64.04106727464873</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970453</v>
       </c>
       <c r="Q16" t="n">
         <v>37.9394308378434</v>
@@ -32183,13 +32183,13 @@
         <v>20.37220984952485</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400148</v>
+        <v>7.895981860400149</v>
       </c>
       <c r="T16" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I17" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008884</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M17" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P17" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721637</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T17" t="n">
         <v>4.421574321745402</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632918</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M18" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O18" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S18" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507748</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I19" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985383</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400148</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T19" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I20" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008884</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M20" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P20" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721637</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T20" t="n">
         <v>4.421574321745402</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609523</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730925</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632918</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L21" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M21" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O21" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P21" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S21" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507748</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I22" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J22" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985383</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400148</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T22" t="n">
         <v>1.935895396133579</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547634</v>
       </c>
       <c r="K11" t="n">
         <v>232.5400468784907</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O11" t="n">
         <v>320.887128151277</v>
@@ -35430,7 +35430,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743893</v>
+        <v>99.08532226743895</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007132</v>
+        <v>50.31259146007134</v>
       </c>
       <c r="K12" t="n">
         <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M12" t="n">
         <v>460.5047371566217</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628865</v>
+        <v>207.1303035041824</v>
       </c>
       <c r="O12" t="n">
         <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>6.25930139277016</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q12" t="n">
         <v>139.0814686107544</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345149</v>
       </c>
       <c r="L13" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301521</v>
       </c>
       <c r="M13" t="n">
         <v>110.6065244416944</v>
@@ -35582,10 +35582,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547634</v>
       </c>
       <c r="K14" t="n">
         <v>232.5400468784907</v>
@@ -35655,10 +35655,10 @@
         <v>341.2911650353661</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526488</v>
+        <v>388.1628865526489</v>
       </c>
       <c r="O14" t="n">
         <v>320.887128151277</v>
@@ -35667,7 +35667,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743893</v>
+        <v>99.08532226743894</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070363</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M15" t="n">
-        <v>229.3890347579888</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N15" t="n">
         <v>488.5585973628865</v>
@@ -35746,7 +35746,7 @@
         <v>287.6875952514739</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.0814686107544</v>
+        <v>121.8578402191582</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>30.37038724345148</v>
       </c>
       <c r="L16" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301521</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
@@ -35822,7 +35822,7 @@
         <v>88.6261951886884</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459802</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O17" t="n">
         <v>320.887128151277</v>
@@ -35904,7 +35904,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743893</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>332.405303746223</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566217</v>
+        <v>443.2811087650253</v>
       </c>
       <c r="N18" t="n">
         <v>488.5585973628865</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345148</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L19" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O19" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547632</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N20" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O20" t="n">
         <v>320.887128151277</v>
@@ -36141,7 +36141,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743893</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>50.31259146007132</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M21" t="n">
         <v>460.5047371566217</v>
@@ -36214,13 +36214,13 @@
         <v>488.5585973628865</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296668</v>
+        <v>287.8148914417887</v>
       </c>
       <c r="P21" t="n">
         <v>287.6875952514739</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.54524875908662</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345148</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L22" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M22" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459801</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>827581.7306307473</v>
+        <v>893288.7831971281</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958494</v>
+        <v>11773978.35958493</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
@@ -676,7 +676,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>35.40726547353833</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>84.14750936819277</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>78.94281254009712</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7.75244978286076</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,43 +1302,43 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>140.2657059326912</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2926691378088</v>
+        <v>231.2733892523606</v>
       </c>
       <c r="H11" t="n">
         <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>101.9125996914278</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>1.555310432045805</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.9863995095175</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>194.0496263582885</v>
       </c>
       <c r="U13" t="n">
-        <v>193.8209438199395</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>225.6755266333755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>119.0246026812338</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1691,19 +1691,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>1.555310432046248</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207136</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>197.9863995095175</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>173.0099511037976</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>156.1759395302581</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>156.9211815276446</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>194.0496263582885</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>147.075402724031</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379247</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>225.4223712693322</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,16 +1928,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>161.6448423772186</v>
       </c>
       <c r="T18" t="n">
-        <v>141.9180006590459</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>146.6195776571249</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8209438199398</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>74.50226794244566</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>263.3878013207603</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>108.4308220919515</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>84.73444600795274</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.9863995095175</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>21.75631204427252</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>81.92730862249878</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>84.39134579802132</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>295.9408816142891</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2338,7 +2338,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>150.824233262766</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>86.88462298447445</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>375.4380596030671</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>98.63122914173718</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>22.11041309544132</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.65893690886289</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>27.2074914928994</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.2123634091011</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>274.9468465755252</v>
+        <v>191.810496426921</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>208.1110812604921</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>118.32704663353</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3325,7 +3325,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>92.0131643636421</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>22.58276652364325</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>331.7493528766291</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>84.95149223441521</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>28.47797095035145</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8100533453327</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>85.21218685941359</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.553858340637828</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.8295353075367</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>22.11041309544134</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>132.3879643982074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>375.1564537378266</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -4030,13 +4030,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4070,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
@@ -4106,7 +4106,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>81.6480249358935</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F2" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4372,10 +4372,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4415,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4433,22 +4433,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>497.8820279860555</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4837,19 +4837,19 @@
         <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>132.7447050367114</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V8" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W8" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X8" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>178.5185981156682</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C9" t="n">
-        <v>178.5185981156682</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>782.8090536048801</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>554.5854353412691</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>554.5854353412691</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>554.5854353412691</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X9" t="n">
-        <v>346.7339351357363</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y9" t="n">
-        <v>346.7339351357363</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1204.106214318017</v>
+        <v>1167.308510175229</v>
       </c>
       <c r="C11" t="n">
-        <v>1204.106214318017</v>
+        <v>1167.308510175229</v>
       </c>
       <c r="D11" t="n">
-        <v>1204.106214318017</v>
+        <v>1167.308510175229</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.106214318017</v>
+        <v>781.5202575769847</v>
       </c>
       <c r="F11" t="n">
-        <v>793.1203095284093</v>
+        <v>781.5202575769847</v>
       </c>
       <c r="G11" t="n">
-        <v>374.642865954865</v>
+        <v>547.9107734836912</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600102</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J11" t="n">
         <v>115.2290882856225</v>
@@ -5047,46 +5047,46 @@
         <v>345.4437346953284</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803409</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R11" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T11" t="n">
-        <v>2109.393835800051</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.393835800051</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="V11" t="n">
-        <v>2109.393835800051</v>
+        <v>1557.447842151041</v>
       </c>
       <c r="W11" t="n">
-        <v>2109.393835800051</v>
+        <v>1557.447842151041</v>
       </c>
       <c r="X11" t="n">
-        <v>1735.928077538971</v>
+        <v>1557.447842151041</v>
       </c>
       <c r="Y11" t="n">
-        <v>1345.788745563159</v>
+        <v>1167.308510175229</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>377.4493816410136</v>
+        <v>881.0368843733719</v>
       </c>
       <c r="C12" t="n">
-        <v>202.9963523598866</v>
+        <v>706.5838550922449</v>
       </c>
       <c r="D12" t="n">
-        <v>202.9963523598866</v>
+        <v>557.6494454309936</v>
       </c>
       <c r="E12" t="n">
-        <v>43.75889735443113</v>
+        <v>398.4119904255381</v>
       </c>
       <c r="F12" t="n">
-        <v>42.18787671600102</v>
+        <v>251.8774324524231</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147164</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K12" t="n">
-        <v>303.7504955284376</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="L12" t="n">
-        <v>649.8831383448789</v>
+        <v>388.3205195324425</v>
       </c>
       <c r="M12" t="n">
-        <v>1105.782828129934</v>
+        <v>844.2202093174981</v>
       </c>
       <c r="N12" t="n">
-        <v>1310.841828599075</v>
+        <v>1327.893220706756</v>
       </c>
       <c r="O12" t="n">
-        <v>1686.892462576445</v>
+        <v>1703.943854684126</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875404</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R12" t="n">
-        <v>2042.117567525231</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S12" t="n">
-        <v>1878.839948962384</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T12" t="n">
-        <v>1678.853686831559</v>
+        <v>1909.407573669226</v>
       </c>
       <c r="U12" t="n">
-        <v>1450.665982591513</v>
+        <v>1681.21986942918</v>
       </c>
       <c r="V12" t="n">
-        <v>1215.51387435977</v>
+        <v>1446.067761197437</v>
       </c>
       <c r="W12" t="n">
-        <v>961.2765176315684</v>
+        <v>1191.830404469236</v>
       </c>
       <c r="X12" t="n">
-        <v>753.4250174260355</v>
+        <v>983.978904263703</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.6647186610817</v>
+        <v>983.978904263703</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="C13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="D13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="E13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L13" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871617</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842137</v>
+        <v>331.3740542899832</v>
       </c>
       <c r="U13" t="n">
-        <v>331.6050467529616</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="V13" t="n">
-        <v>331.6050467529616</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="W13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="X13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1155.204344861407</v>
+        <v>959.1889054990386</v>
       </c>
       <c r="C14" t="n">
-        <v>786.2418279209958</v>
+        <v>959.1889054990386</v>
       </c>
       <c r="D14" t="n">
-        <v>427.9761293142453</v>
+        <v>959.1889054990386</v>
       </c>
       <c r="E14" t="n">
-        <v>42.18787671600103</v>
+        <v>573.4006529007943</v>
       </c>
       <c r="F14" t="n">
-        <v>42.18787671600103</v>
+        <v>162.4147481111867</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L14" t="n">
         <v>683.321988080341</v>
@@ -5290,7 +5290,7 @@
         <v>1075.883192613821</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O14" t="n">
         <v>1777.842707170708</v>
@@ -5299,31 +5299,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="U14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="V14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="W14" t="n">
-        <v>1756.625180529937</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="X14" t="n">
-        <v>1383.159422268857</v>
+        <v>1735.928077538972</v>
       </c>
       <c r="Y14" t="n">
-        <v>1383.159422268857</v>
+        <v>1345.78874556316</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>377.4493816410141</v>
+        <v>620.2068305645909</v>
       </c>
       <c r="C15" t="n">
-        <v>202.9963523598871</v>
+        <v>445.7538012834639</v>
       </c>
       <c r="D15" t="n">
-        <v>202.9963523598871</v>
+        <v>296.8193916222126</v>
       </c>
       <c r="E15" t="n">
-        <v>43.75889735443158</v>
+        <v>296.8193916222126</v>
       </c>
       <c r="F15" t="n">
-        <v>43.75889735443158</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600103</v>
+        <v>150.2848336490975</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600103</v>
+        <v>91.99734226147169</v>
       </c>
       <c r="K15" t="n">
-        <v>42.18787671600103</v>
+        <v>303.7504955284377</v>
       </c>
       <c r="L15" t="n">
-        <v>388.3205195324424</v>
+        <v>649.8831383448792</v>
       </c>
       <c r="M15" t="n">
-        <v>844.2202093174978</v>
+        <v>1105.782828129935</v>
       </c>
       <c r="N15" t="n">
-        <v>1327.893220706756</v>
+        <v>1589.455839519193</v>
       </c>
       <c r="O15" t="n">
-        <v>1703.943854684126</v>
+        <v>1965.506473496563</v>
       </c>
       <c r="P15" t="n">
-        <v>1988.754573983085</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R15" t="n">
         <v>2042.117567525232</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962385</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="T15" t="n">
-        <v>1678.853686831559</v>
+        <v>1842.131305394407</v>
       </c>
       <c r="U15" t="n">
-        <v>1450.665982591513</v>
+        <v>1613.943601154361</v>
       </c>
       <c r="V15" t="n">
-        <v>1215.51387435977</v>
+        <v>1378.791492922618</v>
       </c>
       <c r="W15" t="n">
-        <v>961.2765176315688</v>
+        <v>1204.033966555146</v>
       </c>
       <c r="X15" t="n">
-        <v>753.425017426036</v>
+        <v>996.1824663496127</v>
       </c>
       <c r="Y15" t="n">
-        <v>545.6647186610821</v>
+        <v>788.4221675846588</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.8775339168959</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="C16" t="n">
-        <v>199.941350988989</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="D16" t="n">
-        <v>199.941350988989</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="E16" t="n">
-        <v>199.941350988989</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="F16" t="n">
-        <v>199.941350988989</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L16" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871617</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R16" t="n">
-        <v>368.8775339168959</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S16" t="n">
-        <v>368.8775339168959</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="T16" t="n">
-        <v>368.8775339168959</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="U16" t="n">
-        <v>368.8775339168959</v>
+        <v>238.1976003102318</v>
       </c>
       <c r="V16" t="n">
-        <v>368.8775339168959</v>
+        <v>238.1976003102318</v>
       </c>
       <c r="W16" t="n">
-        <v>368.8775339168959</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="X16" t="n">
-        <v>368.8775339168959</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="Y16" t="n">
-        <v>368.8775339168959</v>
+        <v>42.18787671600104</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1197.227732710603</v>
+        <v>846.4535728877895</v>
       </c>
       <c r="C17" t="n">
-        <v>1197.227732710603</v>
+        <v>846.4535728877895</v>
       </c>
       <c r="D17" t="n">
-        <v>838.9620341038528</v>
+        <v>846.4535728877895</v>
       </c>
       <c r="E17" t="n">
-        <v>453.1737815056086</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="F17" t="n">
-        <v>42.18787671600103</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L17" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803413</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O17" t="n">
         <v>1777.842707170708</v>
@@ -5536,31 +5536,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R17" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="S17" t="n">
-        <v>2109.393835800051</v>
+        <v>1834.218536131508</v>
       </c>
       <c r="T17" t="n">
-        <v>2109.393835800051</v>
+        <v>1834.218536131508</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.393835800051</v>
+        <v>1834.218536131508</v>
       </c>
       <c r="V17" t="n">
-        <v>2109.393835800051</v>
+        <v>1606.519171212991</v>
       </c>
       <c r="W17" t="n">
-        <v>2109.393835800051</v>
+        <v>1606.519171212991</v>
       </c>
       <c r="X17" t="n">
-        <v>1735.928077538972</v>
+        <v>1233.053412951911</v>
       </c>
       <c r="Y17" t="n">
-        <v>1345.78874556316</v>
+        <v>1233.053412951911</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>501.3603962294413</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C18" t="n">
-        <v>326.9073669483143</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D18" t="n">
-        <v>326.9073669483143</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E18" t="n">
-        <v>326.9073669483143</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="F18" t="n">
-        <v>180.3728089751993</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600103</v>
+        <v>91.99734226147169</v>
       </c>
       <c r="K18" t="n">
-        <v>42.18787671600103</v>
+        <v>303.7504955284377</v>
       </c>
       <c r="L18" t="n">
-        <v>388.3205195324424</v>
+        <v>649.8831383448792</v>
       </c>
       <c r="M18" t="n">
-        <v>827.1688172098175</v>
+        <v>827.1688172098179</v>
       </c>
       <c r="N18" t="n">
-        <v>1310.841828599075</v>
+        <v>1310.841828599076</v>
       </c>
       <c r="O18" t="n">
-        <v>1686.892462576445</v>
+        <v>1686.892462576446</v>
       </c>
       <c r="P18" t="n">
-        <v>1971.703181875404</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S18" t="n">
-        <v>1946.116217237204</v>
+        <v>1946.116217237205</v>
       </c>
       <c r="T18" t="n">
-        <v>1802.764701419986</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U18" t="n">
-        <v>1574.57699717994</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V18" t="n">
-        <v>1339.424888948198</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W18" t="n">
-        <v>1085.187532219996</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X18" t="n">
-        <v>877.3360320144632</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y18" t="n">
-        <v>669.5757332495093</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="C19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="D19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L19" t="n">
         <v>166.2559978081031</v>
@@ -5685,40 +5685,40 @@
         <v>275.7564570053806</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871618</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842139</v>
+        <v>299.0911576497212</v>
       </c>
       <c r="U19" t="n">
-        <v>331.6050467529616</v>
+        <v>299.0911576497212</v>
       </c>
       <c r="V19" t="n">
-        <v>331.6050467529616</v>
+        <v>299.0911576497212</v>
       </c>
       <c r="W19" t="n">
-        <v>42.18787671600103</v>
+        <v>299.0911576497212</v>
       </c>
       <c r="X19" t="n">
-        <v>42.18787671600103</v>
+        <v>299.0911576497212</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.18787671600103</v>
+        <v>223.8363415462407</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1470.154498480401</v>
+        <v>1626.401994617809</v>
       </c>
       <c r="C20" t="n">
-        <v>1470.154498480401</v>
+        <v>1257.439477677397</v>
       </c>
       <c r="D20" t="n">
-        <v>1470.154498480401</v>
+        <v>1257.439477677397</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.106214318017</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F20" t="n">
-        <v>793.1203095284093</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G20" t="n">
-        <v>374.642865954865</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856228</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953287</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803408</v>
+        <v>683.3219880803413</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O20" t="n">
         <v>1777.842707170708</v>
@@ -5773,31 +5773,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R20" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S20" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T20" t="n">
-        <v>1801.217385823971</v>
+        <v>1999.867752878889</v>
       </c>
       <c r="U20" t="n">
-        <v>1801.217385823971</v>
+        <v>1999.867752878889</v>
       </c>
       <c r="V20" t="n">
-        <v>1470.154498480401</v>
+        <v>1999.867752878889</v>
       </c>
       <c r="W20" t="n">
-        <v>1470.154498480401</v>
+        <v>1999.867752878889</v>
       </c>
       <c r="X20" t="n">
-        <v>1470.154498480401</v>
+        <v>1626.401994617809</v>
       </c>
       <c r="Y20" t="n">
-        <v>1470.154498480401</v>
+        <v>1626.401994617809</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>630.5098759087952</v>
+        <v>608.0032684786811</v>
       </c>
       <c r="C21" t="n">
-        <v>456.0568466276681</v>
+        <v>433.5502391975541</v>
       </c>
       <c r="D21" t="n">
-        <v>456.0568466276681</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E21" t="n">
-        <v>296.8193916222126</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F21" t="n">
-        <v>150.2848336490975</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G21" t="n">
-        <v>150.2848336490975</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K21" t="n">
-        <v>253.941029982967</v>
+        <v>253.9410299829671</v>
       </c>
       <c r="L21" t="n">
-        <v>600.0736727994084</v>
+        <v>508.9597813494094</v>
       </c>
       <c r="M21" t="n">
-        <v>1055.973362584464</v>
+        <v>964.8594711344649</v>
       </c>
       <c r="N21" t="n">
-        <v>1539.646373973721</v>
+        <v>1448.532482523723</v>
       </c>
       <c r="O21" t="n">
-        <v>1824.583116501092</v>
+        <v>1824.583116501093</v>
       </c>
       <c r="P21" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R21" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S21" t="n">
-        <v>1946.116217237204</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T21" t="n">
-        <v>1746.129955106379</v>
+        <v>1909.407573669226</v>
       </c>
       <c r="U21" t="n">
-        <v>1517.942250866333</v>
+        <v>1681.21986942918</v>
       </c>
       <c r="V21" t="n">
-        <v>1282.79014263459</v>
+        <v>1446.067761197437</v>
       </c>
       <c r="W21" t="n">
-        <v>1028.552785906388</v>
+        <v>1191.830404469236</v>
       </c>
       <c r="X21" t="n">
-        <v>820.7012857008556</v>
+        <v>983.978904263703</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.7252129288631</v>
+        <v>776.2186054987492</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L22" t="n">
         <v>166.2559978081031</v>
@@ -5922,37 +5922,37 @@
         <v>275.7564570053806</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871618</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842139</v>
+        <v>444.6289206897708</v>
       </c>
       <c r="S22" t="n">
-        <v>309.0801251806057</v>
+        <v>444.6289206897708</v>
       </c>
       <c r="T22" t="n">
-        <v>223.8363415462407</v>
+        <v>444.6289206897708</v>
       </c>
       <c r="U22" t="n">
-        <v>223.8363415462407</v>
+        <v>444.6289206897708</v>
       </c>
       <c r="V22" t="n">
-        <v>223.8363415462407</v>
+        <v>444.6289206897708</v>
       </c>
       <c r="W22" t="n">
-        <v>223.8363415462407</v>
+        <v>444.6289206897708</v>
       </c>
       <c r="X22" t="n">
-        <v>223.8363415462407</v>
+        <v>444.6289206897708</v>
       </c>
       <c r="Y22" t="n">
         <v>223.8363415462407</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C23" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D23" t="n">
-        <v>1662.48357412947</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>533.4854121507919</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>206.2906921867948</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6028,13 +6028,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X23" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y23" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>288.5951747571379</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>141.7052272592275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>141.7052272592275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1210.087414675782</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="C26" t="n">
-        <v>1210.087414675782</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="D26" t="n">
-        <v>1210.087414675782</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
@@ -6232,13 +6232,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.483574129469</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859355</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X26" t="n">
-        <v>1309.714918859355</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y26" t="n">
-        <v>1210.087414675782</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
@@ -6317,13 +6317,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240415</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240415</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240415</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1536.177557778964</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C29" t="n">
-        <v>1536.177557778964</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.911859172213</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739691</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036444</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2686.382488079977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2686.382488079977</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V29" t="n">
-        <v>2686.382488079977</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W29" t="n">
-        <v>2686.382488079977</v>
+        <v>2084.84210367345</v>
       </c>
       <c r="X29" t="n">
-        <v>2312.916729818897</v>
+        <v>1711.37634541237</v>
       </c>
       <c r="Y29" t="n">
-        <v>1922.777397843086</v>
+        <v>1321.237013436559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152625</v>
@@ -6566,25 +6566,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>218.8039549608706</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036444</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T31" t="n">
-        <v>632.5337622027571</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U31" t="n">
-        <v>343.360151857325</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1386.090004781549</v>
+        <v>1034.617283051398</v>
       </c>
       <c r="C32" t="n">
-        <v>1017.127487841138</v>
+        <v>665.6547661109867</v>
       </c>
       <c r="D32" t="n">
-        <v>658.8617892343871</v>
+        <v>665.6547661109867</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6706,13 +6706,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312743</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W32" t="n">
-        <v>1759.555763042629</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X32" t="n">
-        <v>1386.090004781549</v>
+        <v>1421.21712311552</v>
       </c>
       <c r="Y32" t="n">
-        <v>1386.090004781549</v>
+        <v>1421.21712311552</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1430.355453824634</v>
+        <v>830.1724885289281</v>
       </c>
       <c r="C35" t="n">
-        <v>1430.355453824634</v>
+        <v>830.1724885289281</v>
       </c>
       <c r="D35" t="n">
-        <v>1072.089755217883</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E35" t="n">
-        <v>1072.089755217883</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036444</v>
@@ -6940,10 +6940,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.723949158869</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2169.723949158869</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W35" t="n">
-        <v>1816.955293888755</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X35" t="n">
-        <v>1816.955293888755</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y35" t="n">
-        <v>1816.955293888755</v>
+        <v>1216.77232859305</v>
       </c>
     </row>
     <row r="36">
@@ -6992,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E37" t="n">
         <v>53.94298182036444</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1704.527073573122</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C38" t="n">
-        <v>1704.527073573122</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D38" t="n">
-        <v>1346.261374966372</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E38" t="n">
-        <v>960.4731223681274</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2057.295728843236</v>
+        <v>2611.339502902651</v>
       </c>
       <c r="W38" t="n">
-        <v>1704.527073573122</v>
+        <v>2258.570847632537</v>
       </c>
       <c r="X38" t="n">
-        <v>1704.527073573122</v>
+        <v>1885.105089371457</v>
       </c>
       <c r="Y38" t="n">
-        <v>1704.527073573122</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>351.9727148150933</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C40" t="n">
-        <v>351.9727148150933</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D40" t="n">
-        <v>201.8560754027576</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>572.7652939586234</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y40" t="n">
-        <v>351.9727148150933</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1273.280804219765</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C41" t="n">
-        <v>1273.280804219765</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D41" t="n">
-        <v>1273.280804219765</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E41" t="n">
-        <v>887.4925516215203</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F41" t="n">
-        <v>476.5066468319127</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G41" t="n">
-        <v>58.54283873009962</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>58.54283873009962</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036444</v>
@@ -7444,19 +7444,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V41" t="n">
-        <v>2423.485734520778</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W41" t="n">
-        <v>2423.485734520778</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X41" t="n">
-        <v>2050.019976259698</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y41" t="n">
-        <v>1659.880644283886</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036444</v>
@@ -7493,22 +7493,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036444</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U43" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1528.349585887292</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C44" t="n">
-        <v>1394.624369323446</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="D44" t="n">
-        <v>1036.358670716696</v>
+        <v>913.5495906557635</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>913.5495906557635</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
         <v>207.4089578252748</v>
@@ -7678,22 +7678,22 @@
         <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W44" t="n">
-        <v>1528.349585887292</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X44" t="n">
-        <v>1528.349585887292</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y44" t="n">
-        <v>1528.349585887292</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,16 +7727,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517452</v>
@@ -7754,22 +7754,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W46" t="n">
-        <v>502.7251118619119</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,10 +8306,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033748</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>50.5731630055422</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>197.9140804848494</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>301.239140248341</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033751</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>50.57316300554226</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>37.03447478123316</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.8536593442529</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033751</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>50.57316300554223</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>448.4814353584035</v>
+        <v>184.2767698912961</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033748</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>278.8061115155813</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>301.8280854888514</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509468</v>
+        <v>70.99581912509466</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.9238900028821</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
@@ -22564,7 +22564,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>64.7505686791048</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>70.3588251877606</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>108.2910995245859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,13 +22913,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>121.6254758352847</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22959,7 +22959,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>242.3541153134493</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23038,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23077,10 +23077,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>227.3726215175137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>93.76568644821862</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4122789119608</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.4681357307894</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>183.0192798854483</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S11" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>64.62058395843951</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5139019613381</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>66.60350559207136</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23439,7 +23439,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022415</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385096</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23469,16 +23469,16 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T13" t="n">
-        <v>226.0096940321479</v>
+        <v>31.96006767385941</v>
       </c>
       <c r="U13" t="n">
-        <v>92.47337197830285</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157.058315030105</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>295.268066456575</v>
       </c>
       <c r="H14" t="n">
         <v>329.1304393464753</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S14" t="n">
         <v>186.0031364379248</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.2477725045601</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H15" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>78.68503205712202</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>11.36195792697791</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H16" t="n">
         <v>158.1988625129318</v>
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022415</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385096</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S16" t="n">
         <v>216.1206161765721</v>
@@ -23709,13 +23709,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>92.47337197830251</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>235.6584389394496</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>329.1304393464753</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.674275242386</v>
@@ -23791,7 +23791,7 @@
         <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>102.3298872008027</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
         <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245151</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207136</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>56.06839885047154</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>79.28624954052063</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23913,7 +23913,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022414</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385095</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23943,22 +23943,22 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>92.47337197830262</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>144.0823854096491</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>118.5425687515015</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
         <v>171.5352284535379</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>186.0031364379247</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>110.2434531504344</v>
       </c>
       <c r="U20" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>62.71061955668601</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245151</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207136</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>183.9263837330318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022414</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385095</v>
       </c>
       <c r="R22" t="n">
-        <v>156.9211815276446</v>
+        <v>74.99387290514584</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
-        <v>141.6183482341266</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
         <v>286.2943157982424</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>85.98948845797264</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.107082982095221</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24369,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>69.2862658573207</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>31.43798613864431</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.6067095143164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>145.1364080031865</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.67053247541058</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>205.7893834487949</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>322.0334772245136</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24849,19 +24849,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>4.097438849949839</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>106.9835234967366</v>
+        <v>190.1198736453408</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>17.59857412854504</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>288.5489991081814</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>294.2247742924115</v>
       </c>
     </row>
     <row r="36">
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>157.2492136582941</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>75.12669286508236</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>242.8007662357197</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>151.3540092315858</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>71.89960204370445</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>280.060704911594</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>147.3774579042234</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>61.59151271539454</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25833,13 +25833,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>202.9246923626429</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>232.8849273728002</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>31.71959200388483</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>85.59879616273433</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,10 +26073,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658021.7165593388</v>
+        <v>658021.716559339</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658021.716559339</v>
+        <v>658021.7165593391</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>763912.8841460875</v>
+        <v>763912.8841460873</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763912.8841460876</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>763912.8841460873</v>
+        <v>763912.8841460875</v>
       </c>
     </row>
     <row r="16">
@@ -26319,22 +26319,22 @@
         <v>157852.6389047658</v>
       </c>
       <c r="D2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="E2" t="n">
         <v>235437.2422819576</v>
       </c>
       <c r="F2" t="n">
+        <v>235437.2422819575</v>
+      </c>
+      <c r="G2" t="n">
         <v>235437.2422819576</v>
-      </c>
-      <c r="G2" t="n">
-        <v>235437.2422819575</v>
       </c>
       <c r="H2" t="n">
         <v>235437.2422819576</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149697</v>
@@ -26346,13 +26346,13 @@
         <v>274694.9795149697</v>
       </c>
       <c r="M2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.97951497</v>
       </c>
       <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
-        <v>274694.9795149696</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149698</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134256</v>
+        <v>287351.7100134257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116921</v>
+        <v>134288.701511692</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871078</v>
+        <v>71355.62051871089</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="F5" t="n">
         <v>37540.13459730639</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8698.340223203328</v>
+        <v>2297.869334833061</v>
       </c>
       <c r="C6" t="n">
-        <v>72071.09130834436</v>
+        <v>83067.30086638079</v>
       </c>
       <c r="D6" t="n">
-        <v>72071.09130834433</v>
+        <v>83067.30086638079</v>
       </c>
       <c r="E6" t="n">
-        <v>-124047.5686871371</v>
+        <v>-116726.419289073</v>
       </c>
       <c r="F6" t="n">
-        <v>163304.1413262885</v>
+        <v>170625.2907243526</v>
       </c>
       <c r="G6" t="n">
-        <v>163304.1413262885</v>
+        <v>170625.2907243527</v>
       </c>
       <c r="H6" t="n">
-        <v>163304.1413262885</v>
+        <v>170625.2907243527</v>
       </c>
       <c r="I6" t="n">
-        <v>58019.54908908417</v>
+        <v>63481.1214603214</v>
       </c>
       <c r="J6" t="n">
-        <v>129248.3080016698</v>
+        <v>134709.8803729071</v>
       </c>
       <c r="K6" t="n">
-        <v>192308.2506007759</v>
+        <v>197769.8229720132</v>
       </c>
       <c r="L6" t="n">
-        <v>192308.250600776</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="M6" t="n">
-        <v>120952.6300820652</v>
+        <v>126414.2024533027</v>
       </c>
       <c r="N6" t="n">
-        <v>192308.250600776</v>
+        <v>197769.8229720133</v>
       </c>
       <c r="O6" t="n">
-        <v>192308.2506007759</v>
+        <v>197769.8229720134</v>
       </c>
       <c r="P6" t="n">
-        <v>192308.2506007761</v>
+        <v>197769.8229720134</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.348458950013</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.348458950013</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.348458950013</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.348458950013</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545555</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045427</v>
+        <v>146.9388138045426</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723535</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>1.010068377326191</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686802</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008885</v>
+        <v>85.7282909400889</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L11" t="n">
         <v>159.396365454903</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O11" t="n">
         <v>170.1851583102184</v>
       </c>
       <c r="P11" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q11" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721641</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745404</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609528</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042923</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730926</v>
+        <v>5.219456872730929</v>
       </c>
       <c r="I12" t="n">
         <v>18.60705560896357</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632922</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881675</v>
+        <v>87.26827596881679</v>
       </c>
       <c r="L12" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N12" t="n">
         <v>140.5579351026663</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P12" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092682</v>
+        <v>68.98595496092686</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S12" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922977</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227529</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507751</v>
       </c>
       <c r="I13" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644861</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933434</v>
+        <v>52.63987906933437</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269907</v>
+        <v>67.3609219326991</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985384</v>
+        <v>71.02264747985387</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620546</v>
+        <v>69.3338876662055</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464877</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970456</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784341</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S13" t="n">
-        <v>7.89598186040015</v>
+        <v>7.895981860400154</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133579</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>1.010068377326191</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I14" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686802</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008885</v>
+        <v>85.7282909400889</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L14" t="n">
         <v>159.396365454903</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P14" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721638</v>
+        <v>63.44870770721641</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745404</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609528</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042923</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730926</v>
+        <v>5.219456872730929</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632919</v>
+        <v>51.05918278632922</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881679</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N15" t="n">
         <v>140.5579351026663</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P15" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092682</v>
+        <v>68.98595496092686</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S15" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922977</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227526</v>
+        <v>0.4530819012227529</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507751</v>
       </c>
       <c r="I16" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644861</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933437</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269907</v>
+        <v>67.3609219326991</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985384</v>
+        <v>71.02264747985387</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620546</v>
+        <v>69.3338876662055</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464877</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970453</v>
+        <v>54.79819648970456</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400149</v>
+        <v>7.895981860400154</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133579</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>10.34436276929186</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686803</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008891</v>
       </c>
       <c r="K17" t="n">
         <v>128.4844853523066</v>
       </c>
       <c r="L17" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549031</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O17" t="n">
         <v>170.1851583102184</v>
       </c>
       <c r="P17" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q17" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721642</v>
       </c>
       <c r="S17" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832061</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745405</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,40 +32305,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042923</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730929</v>
       </c>
       <c r="I18" t="n">
         <v>18.60705560896357</v>
       </c>
       <c r="J18" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632922</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881681</v>
       </c>
       <c r="L18" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026664</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P18" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092683</v>
+        <v>68.98595496092686</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S18" t="n">
         <v>10.03832872661919</v>
@@ -32347,7 +32347,7 @@
         <v>2.178329185304142</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922977</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227529</v>
       </c>
       <c r="H19" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507752</v>
       </c>
       <c r="I19" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644862</v>
+        <v>32.03289041644863</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933437</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269911</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985389</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620547</v>
+        <v>69.3338876662055</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464877</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970457</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784341</v>
+        <v>37.93943083784343</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952487</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400155</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>10.34436276929186</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686803</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008891</v>
       </c>
       <c r="K20" t="n">
         <v>128.4844853523066</v>
       </c>
       <c r="L20" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549031</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O20" t="n">
         <v>170.1851583102184</v>
       </c>
       <c r="P20" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q20" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721642</v>
       </c>
       <c r="S20" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832061</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745405</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042923</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730929</v>
       </c>
       <c r="I21" t="n">
         <v>18.60705560896357</v>
       </c>
       <c r="J21" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632922</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881681</v>
       </c>
       <c r="L21" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026664</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P21" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092683</v>
+        <v>68.98595496092686</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S21" t="n">
         <v>10.03832872661919</v>
@@ -32584,7 +32584,7 @@
         <v>2.178329185304142</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922977</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227529</v>
       </c>
       <c r="H22" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507752</v>
       </c>
       <c r="I22" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644862</v>
+        <v>32.03289041644863</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933437</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269911</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985389</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620547</v>
+        <v>69.3338876662055</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464877</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970457</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784341</v>
+        <v>37.93943083784343</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952487</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400155</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133579</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,10 +35026,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547638</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L11" t="n">
         <v>341.2911650353662</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N11" t="n">
         <v>388.162886552649</v>
       </c>
       <c r="O11" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743895</v>
+        <v>99.085322267439</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007134</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070363</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N12" t="n">
-        <v>207.1303035041824</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O12" t="n">
         <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514739</v>
+        <v>270.4639668598778</v>
       </c>
       <c r="Q12" t="n">
         <v>139.0814686107544</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345149</v>
+        <v>30.37038724345152</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301521</v>
+        <v>94.95094719301524</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N13" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868844</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459805</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547638</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526489</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O14" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743894</v>
+        <v>99.085322267439</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>50.31259146007136</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L15" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N15" t="n">
         <v>488.5585973628865</v>
@@ -35743,10 +35743,10 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6875952514739</v>
+        <v>6.259301392769931</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.8578402191582</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345152</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301521</v>
+        <v>94.95094719301524</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N16" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O16" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868844</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459802</v>
+        <v>52.07675575459805</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547639</v>
       </c>
       <c r="K17" t="n">
         <v>232.5400468784908</v>
@@ -35892,19 +35892,19 @@
         <v>341.2911650353662</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N17" t="n">
         <v>388.162886552649</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743901</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>50.31259146007137</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L18" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M18" t="n">
-        <v>443.2811087650253</v>
+        <v>179.0764432979179</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628865</v>
+        <v>488.5585973628866</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296669</v>
       </c>
       <c r="P18" t="n">
         <v>287.6875952514739</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345152</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301522</v>
+        <v>94.95094719301525</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N19" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868844</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459805</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547639</v>
       </c>
       <c r="K20" t="n">
         <v>232.5400468784908</v>
@@ -36129,19 +36129,19 @@
         <v>341.2911650353662</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N20" t="n">
         <v>388.162886552649</v>
       </c>
       <c r="O20" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743901</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>213.8920740070364</v>
       </c>
       <c r="L21" t="n">
-        <v>349.6289321378196</v>
+        <v>257.5946983499417</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628865</v>
+        <v>488.5585973628866</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8148914417887</v>
+        <v>379.8491252296669</v>
       </c>
       <c r="P21" t="n">
         <v>287.6875952514739</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345152</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301522</v>
+        <v>94.95094719301525</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N22" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868844</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459805</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,10 +36448,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36685,10 +36685,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932188</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,19 +37630,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
